--- a/analyses/unipept/lca/T0_322_digested_PeaksDB_lca-mc.xlsx
+++ b/analyses/unipept/lca/T0_322_digested_PeaksDB_lca-mc.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T0_322_digested_PeaksDB_lca-mc" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18545" uniqueCount="5595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20506" uniqueCount="5595">
   <si>
     <t xml:space="preserve">peptide</t>
   </si>
@@ -16907,7 +16908,7 @@
   </sheetPr>
   <dimension ref="A1:ED774"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C90" activeCellId="0" sqref="C90"/>
     </sheetView>
   </sheetViews>
@@ -74402,4 +74403,7488 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AD774"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E204" activeCellId="0" sqref="E204"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="10.73"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC20" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T48" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X48" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB48" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC48" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="T52" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="X52" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB52" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC52" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="S66" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="W66" s="0" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O70" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T70" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X70" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB70" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC70" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="T71" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="X71" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="AB71" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC71" s="0" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O81" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T81" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X81" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="AB81" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="AC81" s="0" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="O82" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="T82" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="X82" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="AB82" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="AC82" s="0" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="O90" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="T90" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="X90" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB90" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="AC90" s="0" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="N94" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="S94" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="W94" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L120" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O120" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T120" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X120" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB120" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC120" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N121" s="0" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L123" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O123" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T123" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X123" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="AB123" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="AC123" s="0" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L124" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O124" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T124" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X124" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB124" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC124" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H145" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I145" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="J145" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="M145" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="N145" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="O145" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="P145" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q145" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="R145" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="S145" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="T145" s="0" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G147" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J147" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K147" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="N147" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="S147" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="W147" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G152" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J152" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K152" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="N152" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K157" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="O157" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="T157" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="X157" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AB157" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AC157" s="0" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H161" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K161" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="O161" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="T161" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="X161" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AB161" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AC161" s="0" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H163" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K163" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L163" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O163" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T163" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X163" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB163" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC163" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G185" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K190" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="O190" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="T190" s="0" t="s">
+        <v>1561</v>
+      </c>
+      <c r="X190" s="0" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AB190" s="0" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AC190" s="0" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G197" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H199" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K199" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L199" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O199" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T199" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X199" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB199" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC199" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H200" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K200" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L200" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O200" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T200" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X200" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB200" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC200" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I204" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J204" s="0" t="s">
+        <v>1626</v>
+      </c>
+      <c r="AD204" s="0" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G210" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J210" s="0" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N210" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="S210" s="0" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H227" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K227" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L227" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O227" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T227" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X227" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB227" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC227" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G228" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H229" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K229" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="O229" s="0" t="s">
+        <v>1794</v>
+      </c>
+      <c r="T229" s="0" t="s">
+        <v>1795</v>
+      </c>
+      <c r="X229" s="0" t="s">
+        <v>1792</v>
+      </c>
+      <c r="AB229" s="0" t="s">
+        <v>1792</v>
+      </c>
+      <c r="AC229" s="0" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H237" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K237" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L237" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O237" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T237" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X237" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB237" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC237" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H241" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="K241" s="0" t="s">
+        <v>1882</v>
+      </c>
+      <c r="O241" s="0" t="s">
+        <v>1883</v>
+      </c>
+      <c r="T241" s="0" t="s">
+        <v>1884</v>
+      </c>
+      <c r="X241" s="0" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AB241" s="0" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AC241" s="0" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G245" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H245" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I245" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="J245" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G250" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J250" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K250" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="N250" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="S250" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="W250" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G251" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J251" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K251" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="N251" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="S251" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="W251" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H252" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K252" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="O252" s="0" t="s">
+        <v>1794</v>
+      </c>
+      <c r="T252" s="0" t="s">
+        <v>1795</v>
+      </c>
+      <c r="X252" s="0" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AB252" s="0" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AC252" s="0" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D270" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E270" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="H270" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="K270" s="0" t="s">
+        <v>2014</v>
+      </c>
+      <c r="O270" s="0" t="s">
+        <v>2015</v>
+      </c>
+      <c r="T270" s="0" t="s">
+        <v>2016</v>
+      </c>
+      <c r="X270" s="0" t="s">
+        <v>2012</v>
+      </c>
+      <c r="AB270" s="0" t="s">
+        <v>2012</v>
+      </c>
+      <c r="AC270" s="0" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G285" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H287" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K287" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L287" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O287" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T287" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X287" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB287" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC287" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G293" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J293" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K293" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="N293" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="S293" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="W293" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H300" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K300" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L300" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O300" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T300" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X300" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="AB300" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="AC300" s="0" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F303" s="0" t="s">
+        <v>2260</v>
+      </c>
+      <c r="H303" s="0" t="s">
+        <v>2261</v>
+      </c>
+      <c r="I303" s="0" t="s">
+        <v>2262</v>
+      </c>
+      <c r="K303" s="0" t="s">
+        <v>2263</v>
+      </c>
+      <c r="O303" s="0" t="s">
+        <v>2264</v>
+      </c>
+      <c r="X303" s="0" t="s">
+        <v>2257</v>
+      </c>
+      <c r="AB303" s="0" t="s">
+        <v>2257</v>
+      </c>
+      <c r="AC303" s="0" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G309" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H309" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I309" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="J309" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H312" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K312" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="O312" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="T312" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="X312" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AB312" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AC312" s="0" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G326" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H326" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I326" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="J326" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="M326" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="N326" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="O326" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="P326" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q326" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="R326" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="S326" s="0" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H328" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K328" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L328" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O328" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T328" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X328" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB328" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC328" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H331" s="0" t="s">
+        <v>2420</v>
+      </c>
+      <c r="AB331" s="0" t="s">
+        <v>2420</v>
+      </c>
+      <c r="AC331" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G334" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J334" s="0" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N334" s="0" t="s">
+        <v>1883</v>
+      </c>
+      <c r="S334" s="0" t="s">
+        <v>2443</v>
+      </c>
+      <c r="W334" s="0" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G346" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G351" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J351" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K351" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="N351" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G357" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H357" s="0" t="s">
+        <v>2564</v>
+      </c>
+      <c r="I357" s="0" t="s">
+        <v>2565</v>
+      </c>
+      <c r="K357" s="0" t="s">
+        <v>2566</v>
+      </c>
+      <c r="O357" s="0" t="s">
+        <v>2567</v>
+      </c>
+      <c r="T357" s="0" t="s">
+        <v>2568</v>
+      </c>
+      <c r="X357" s="0" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G365" s="0" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G384" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J384" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K384" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="N384" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>2791</v>
+      </c>
+      <c r="G385" s="0" t="s">
+        <v>2792</v>
+      </c>
+      <c r="J385" s="0" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D403" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H403" s="0" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K403" s="0" t="s">
+        <v>2897</v>
+      </c>
+      <c r="O403" s="0" t="s">
+        <v>2898</v>
+      </c>
+      <c r="T403" s="0" t="s">
+        <v>2899</v>
+      </c>
+      <c r="X403" s="0" t="s">
+        <v>2894</v>
+      </c>
+      <c r="AB403" s="0" t="s">
+        <v>2894</v>
+      </c>
+      <c r="AC403" s="0" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D415" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H415" s="0" t="s">
+        <v>2985</v>
+      </c>
+      <c r="K415" s="0" t="s">
+        <v>2985</v>
+      </c>
+      <c r="O415" s="0" t="s">
+        <v>2986</v>
+      </c>
+      <c r="T415" s="0" t="s">
+        <v>2987</v>
+      </c>
+      <c r="X415" s="0" t="s">
+        <v>2983</v>
+      </c>
+      <c r="AB415" s="0" t="s">
+        <v>2983</v>
+      </c>
+      <c r="AC415" s="0" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G422" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G428" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H429" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K429" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L429" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O429" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T429" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X429" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB429" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC429" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B451" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C457" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C472" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D473" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H473" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K473" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="O473" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="T473" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="X473" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AB473" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AC473" s="0" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D474" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G474" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H474" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I474" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="J474" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="M474" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="N474" s="0" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G479" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J479" s="0" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B492" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B493" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B494" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B495" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C496" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D496" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G496" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H496" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B502" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="0" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B504" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B505" s="0" t="s">
+        <v>3629</v>
+      </c>
+      <c r="C505" s="0" t="s">
+        <v>3630</v>
+      </c>
+      <c r="D505" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E505" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="H505" s="0" t="s">
+        <v>3631</v>
+      </c>
+      <c r="K505" s="0" t="s">
+        <v>3632</v>
+      </c>
+      <c r="L505" s="0" t="s">
+        <v>3633</v>
+      </c>
+      <c r="S505" s="0" t="s">
+        <v>3634</v>
+      </c>
+      <c r="T505" s="0" t="s">
+        <v>3635</v>
+      </c>
+      <c r="X505" s="0" t="s">
+        <v>3629</v>
+      </c>
+      <c r="AB505" s="0" t="s">
+        <v>3629</v>
+      </c>
+      <c r="AC505" s="0" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B506" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="0" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="0" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B512" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="0" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="0" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="0" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="0" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="0" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="0" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="0" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="0" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B530" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="0" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B531" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="0" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B532" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="0" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="0" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="0" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B535" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C535" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="0" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="0" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="0" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="0" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="0" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="0" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="0" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B542" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C542" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="0" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B543" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C543" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D543" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G543" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H543" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I543" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="J543" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="M543" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="N543" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="O543" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="P543" s="0" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="0" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B544" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="0" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="0" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B546" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C546" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G546" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J546" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K546" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="N546" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="S546" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="W546" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="0" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B547" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C547" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G547" s="0" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="0" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="0" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B549" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="0" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B550" s="0" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C550" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="D550" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H550" s="0" t="s">
+        <v>3868</v>
+      </c>
+      <c r="AB550" s="0" t="s">
+        <v>3868</v>
+      </c>
+      <c r="AC550" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="0" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B551" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="0" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B552" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C552" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G552" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="0" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="0" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="0" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B555" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="0" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B556" s="0" t="s">
+        <v>3929</v>
+      </c>
+      <c r="C556" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G556" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J556" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N556" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="S556" s="0" t="s">
+        <v>3930</v>
+      </c>
+      <c r="W556" s="0" t="s">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="0" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="0" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="0" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="0" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="0" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B561" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="0" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="0" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="0" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B564" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C564" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B565" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="0" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="0" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="0" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="0" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="0" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="0" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="0" t="s">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="0" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B574" s="0" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C574" s="0" t="s">
+        <v>4007</v>
+      </c>
+      <c r="D574" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E574" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="H574" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="I574" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="J574" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="K574" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="N574" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="O574" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="P574" s="0" t="s">
+        <v>4008</v>
+      </c>
+      <c r="T574" s="0" t="s">
+        <v>4009</v>
+      </c>
+      <c r="U574" s="0" t="s">
+        <v>4010</v>
+      </c>
+      <c r="X574" s="0" t="s">
+        <v>4006</v>
+      </c>
+      <c r="AB574" s="0" t="s">
+        <v>4006</v>
+      </c>
+      <c r="AC574" s="0" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="0" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="0" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B577" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="0" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="0" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B579" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C579" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="0" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="0" t="s">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="0" t="s">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="0" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B583" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="0" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="0" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B585" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="0" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B586" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="0" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B590" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="0" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="0" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="0" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="0" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B594" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="0" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="0" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="0" t="s">
+        <v>4133</v>
+      </c>
+      <c r="B597" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="0" t="s">
+        <v>4148</v>
+      </c>
+      <c r="B598" s="0" t="s">
+        <v>4149</v>
+      </c>
+      <c r="C598" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G598" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J598" s="0" t="s">
+        <v>4150</v>
+      </c>
+      <c r="N598" s="0" t="s">
+        <v>4151</v>
+      </c>
+      <c r="S598" s="0" t="s">
+        <v>4152</v>
+      </c>
+      <c r="W598" s="0" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="0" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B599" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C599" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="0" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B600" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="0" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="0" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B602" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="0" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="0" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B604" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="0" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B605" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="0" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B606" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C606" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D606" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H606" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K606" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="O606" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="T606" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="X606" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AB606" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AC606" s="0" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="0" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="0" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="0" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="0" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="0" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="0" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="0" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="0" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B614" s="0" t="s">
+        <v>4250</v>
+      </c>
+      <c r="C614" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="D614" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H614" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I614" s="0" t="s">
+        <v>2564</v>
+      </c>
+      <c r="J614" s="0" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L614" s="0" t="s">
+        <v>2566</v>
+      </c>
+      <c r="P614" s="0" t="s">
+        <v>4251</v>
+      </c>
+      <c r="Q614" s="0" t="s">
+        <v>4252</v>
+      </c>
+      <c r="U614" s="0" t="s">
+        <v>4250</v>
+      </c>
+      <c r="AC614" s="0" t="s">
+        <v>4250</v>
+      </c>
+      <c r="AD614" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="0" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B615" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="0" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B616" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="0" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="0" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="0" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="0" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="0" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B621" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="0" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B622" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="0" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B623" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="0" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B624" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="0" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B625" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="0" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B626" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="0" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="0" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="0" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B629" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="0" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="0" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B631" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="0" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="0" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B633" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="0" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B634" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="0" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="0" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B636" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C636" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G636" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J636" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K636" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="N636" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="S636" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="W636" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="0" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="0" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="0" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B639" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C639" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="0" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="0" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B641" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="0" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="0" t="s">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="0" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="0" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B645" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="0" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B646" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="0" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B647" s="0" t="s">
+        <v>4562</v>
+      </c>
+      <c r="C647" s="0" t="s">
+        <v>4563</v>
+      </c>
+      <c r="D647" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H647" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K647" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="O647" s="0" t="s">
+        <v>4564</v>
+      </c>
+      <c r="T647" s="0" t="s">
+        <v>4565</v>
+      </c>
+      <c r="X647" s="0" t="s">
+        <v>4562</v>
+      </c>
+      <c r="AB647" s="0" t="s">
+        <v>4562</v>
+      </c>
+      <c r="AC647" s="0" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="0" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="0" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B649" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C649" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D649" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G649" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H649" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I649" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="J649" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="0" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="0" t="s">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="0" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B652" s="0" t="s">
+        <v>4597</v>
+      </c>
+      <c r="C652" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G652" s="0" t="s">
+        <v>4598</v>
+      </c>
+      <c r="K652" s="0" t="s">
+        <v>4599</v>
+      </c>
+      <c r="N652" s="0" t="s">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="0" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B653" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="0" t="s">
+        <v>4630</v>
+      </c>
+      <c r="B654" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="0" t="s">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="0" t="s">
+        <v>4665</v>
+      </c>
+      <c r="B656" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="0" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="0" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B658" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C658" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G658" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="0" t="s">
+        <v>4691</v>
+      </c>
+      <c r="B659" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C659" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="0" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B660" s="0" t="s">
+        <v>4701</v>
+      </c>
+      <c r="C660" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G660" s="0" t="s">
+        <v>4702</v>
+      </c>
+      <c r="J660" s="0" t="s">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="0" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="0" t="s">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="0" t="s">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="0" t="s">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="0" t="s">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="0" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="0" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B667" s="0" t="s">
+        <v>4597</v>
+      </c>
+      <c r="C667" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G667" s="0" t="s">
+        <v>4598</v>
+      </c>
+      <c r="K667" s="0" t="s">
+        <v>4599</v>
+      </c>
+      <c r="N667" s="0" t="s">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="0" t="s">
+        <v>4710</v>
+      </c>
+      <c r="B668" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="0" t="s">
+        <v>4735</v>
+      </c>
+      <c r="B669" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="0" t="s">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="0" t="s">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="0" t="s">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="0" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B673" s="0" t="s">
+        <v>4742</v>
+      </c>
+      <c r="C673" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D673" s="0" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E673" s="0" t="s">
+        <v>2260</v>
+      </c>
+      <c r="G673" s="0" t="s">
+        <v>2261</v>
+      </c>
+      <c r="H673" s="0" t="s">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="0" t="s">
+        <v>4758</v>
+      </c>
+      <c r="B674" s="0" t="s">
+        <v>4759</v>
+      </c>
+      <c r="C674" s="0" t="s">
+        <v>4760</v>
+      </c>
+      <c r="D674" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H674" s="0" t="s">
+        <v>4761</v>
+      </c>
+      <c r="K674" s="0" t="s">
+        <v>4762</v>
+      </c>
+      <c r="O674" s="0" t="s">
+        <v>4763</v>
+      </c>
+      <c r="T674" s="0" t="s">
+        <v>4764</v>
+      </c>
+      <c r="X674" s="0" t="s">
+        <v>4759</v>
+      </c>
+      <c r="AB674" s="0" t="s">
+        <v>4759</v>
+      </c>
+      <c r="AC674" s="0" t="s">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="0" t="s">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="0" t="s">
+        <v>4777</v>
+      </c>
+      <c r="B676" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C676" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="0" t="s">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="0" t="s">
+        <v>4795</v>
+      </c>
+      <c r="B678" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="0" t="s">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="0" t="s">
+        <v>4811</v>
+      </c>
+      <c r="B680" s="0" t="s">
+        <v>4812</v>
+      </c>
+      <c r="C680" s="0" t="s">
+        <v>4813</v>
+      </c>
+      <c r="D680" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E680" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="H680" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="I680" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="K680" s="0" t="s">
+        <v>4814</v>
+      </c>
+      <c r="O680" s="0" t="s">
+        <v>4815</v>
+      </c>
+      <c r="T680" s="0" t="s">
+        <v>4816</v>
+      </c>
+      <c r="X680" s="0" t="s">
+        <v>4812</v>
+      </c>
+      <c r="AB680" s="0" t="s">
+        <v>4812</v>
+      </c>
+      <c r="AC680" s="0" t="s">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="0" t="s">
+        <v>4817</v>
+      </c>
+      <c r="B681" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="0" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B682" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C682" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D682" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H682" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K682" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L682" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O682" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T682" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X682" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB682" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC682" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="0" t="s">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="0" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B684" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C684" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G684" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="0" t="s">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="0" t="s">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="0" t="s">
+        <v>4852</v>
+      </c>
+      <c r="B687" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="0" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B688" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="0" t="s">
+        <v>4910</v>
+      </c>
+      <c r="B689" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="0" t="s">
+        <v>4934</v>
+      </c>
+      <c r="B690" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="0" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B691" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="0" t="s">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="0" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B693" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="0" t="s">
+        <v>4981</v>
+      </c>
+      <c r="B694" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="C694" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G694" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J694" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="N694" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="S694" s="0" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="0" t="s">
+        <v>4982</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="0" t="s">
+        <v>4983</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="0" t="s">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="0" t="s">
+        <v>4985</v>
+      </c>
+      <c r="B698" s="0" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C698" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G698" s="0" t="s">
+        <v>2985</v>
+      </c>
+      <c r="J698" s="0" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="0" t="s">
+        <v>4993</v>
+      </c>
+      <c r="B699" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="0" t="s">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="0" t="s">
+        <v>5021</v>
+      </c>
+      <c r="B701" s="0" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C701" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="D701" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H701" s="0" t="s">
+        <v>3868</v>
+      </c>
+      <c r="AB701" s="0" t="s">
+        <v>3868</v>
+      </c>
+      <c r="AC701" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="0" t="s">
+        <v>5024</v>
+      </c>
+      <c r="B702" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C702" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="0" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="0" t="s">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="0" t="s">
+        <v>5031</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="0" t="s">
+        <v>5032</v>
+      </c>
+      <c r="B706" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="0" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B707" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="0" t="s">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="0" t="s">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="0" t="s">
+        <v>5081</v>
+      </c>
+      <c r="B710" s="0" t="s">
+        <v>5082</v>
+      </c>
+      <c r="C710" s="0" t="s">
+        <v>5083</v>
+      </c>
+      <c r="D710" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E710" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="H710" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="I710" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="K710" s="0" t="s">
+        <v>4814</v>
+      </c>
+      <c r="O710" s="0" t="s">
+        <v>5084</v>
+      </c>
+      <c r="T710" s="0" t="s">
+        <v>5085</v>
+      </c>
+      <c r="V710" s="0" t="s">
+        <v>5086</v>
+      </c>
+      <c r="X710" s="0" t="s">
+        <v>5082</v>
+      </c>
+      <c r="AB710" s="0" t="s">
+        <v>5082</v>
+      </c>
+      <c r="AC710" s="0" t="s">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="0" t="s">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="0" t="s">
+        <v>5088</v>
+      </c>
+      <c r="B712" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C712" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="0" t="s">
+        <v>5107</v>
+      </c>
+      <c r="B713" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="0" t="s">
+        <v>5113</v>
+      </c>
+      <c r="B714" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="0" t="s">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="0" t="s">
+        <v>5142</v>
+      </c>
+      <c r="B716" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="0" t="s">
+        <v>5165</v>
+      </c>
+      <c r="B717" s="0" t="s">
+        <v>5166</v>
+      </c>
+      <c r="C717" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G717" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J717" s="0" t="s">
+        <v>4150</v>
+      </c>
+      <c r="N717" s="0" t="s">
+        <v>5167</v>
+      </c>
+      <c r="S717" s="0" t="s">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="0" t="s">
+        <v>5179</v>
+      </c>
+      <c r="B718" s="0" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C718" s="0" t="s">
+        <v>5180</v>
+      </c>
+      <c r="D718" s="0" t="s">
+        <v>2791</v>
+      </c>
+      <c r="H718" s="0" t="s">
+        <v>2792</v>
+      </c>
+      <c r="AB718" s="0" t="s">
+        <v>2792</v>
+      </c>
+      <c r="AC718" s="0" t="s">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="0" t="s">
+        <v>5189</v>
+      </c>
+      <c r="B719" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C719" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="0" t="s">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="0" t="s">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="0" t="s">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="0" t="s">
+        <v>5199</v>
+      </c>
+      <c r="B723" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C723" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="0" t="s">
+        <v>5219</v>
+      </c>
+      <c r="B724" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="0" t="s">
+        <v>5238</v>
+      </c>
+      <c r="B725" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="0" t="s">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="0" t="s">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="0" t="s">
+        <v>5261</v>
+      </c>
+      <c r="B728" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="0" t="s">
+        <v>5268</v>
+      </c>
+      <c r="B729" s="0" t="s">
+        <v>5269</v>
+      </c>
+      <c r="C729" s="0" t="s">
+        <v>5270</v>
+      </c>
+      <c r="D729" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H729" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K729" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="O729" s="0" t="s">
+        <v>1794</v>
+      </c>
+      <c r="T729" s="0" t="s">
+        <v>5271</v>
+      </c>
+      <c r="X729" s="0" t="s">
+        <v>5269</v>
+      </c>
+      <c r="AB729" s="0" t="s">
+        <v>5269</v>
+      </c>
+      <c r="AC729" s="0" t="s">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="0" t="s">
+        <v>5278</v>
+      </c>
+      <c r="B730" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="0" t="s">
+        <v>5311</v>
+      </c>
+      <c r="B731" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="0" t="s">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="0" t="s">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="0" t="s">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="0" t="s">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="0" t="s">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="0" t="s">
+        <v>5337</v>
+      </c>
+      <c r="B737" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C737" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D737" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H737" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K737" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L737" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O737" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T737" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X737" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB737" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC737" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="0" t="s">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="0" t="s">
+        <v>5339</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="0" t="s">
+        <v>5340</v>
+      </c>
+      <c r="B740" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C740" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="0" t="s">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="0" t="s">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="0" t="s">
+        <v>5355</v>
+      </c>
+      <c r="B743" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="0" t="s">
+        <v>5366</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="0" t="s">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="0" t="s">
+        <v>5368</v>
+      </c>
+      <c r="B746" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="0" t="s">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="0" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="0" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="0" t="s">
+        <v>5381</v>
+      </c>
+      <c r="B750" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="0" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="0" t="s">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="0" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="0" t="s">
+        <v>5403</v>
+      </c>
+      <c r="B754" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="0" t="s">
+        <v>5432</v>
+      </c>
+      <c r="B755" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="0" t="s">
+        <v>5433</v>
+      </c>
+      <c r="B756" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="0" t="s">
+        <v>5449</v>
+      </c>
+      <c r="B757" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="0" t="s">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="0" t="s">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="0" t="s">
+        <v>5474</v>
+      </c>
+      <c r="B760" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="0" t="s">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="0" t="s">
+        <v>5500</v>
+      </c>
+      <c r="B762" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C762" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G762" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="0" t="s">
+        <v>5506</v>
+      </c>
+      <c r="B763" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="0" t="s">
+        <v>5528</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="0" t="s">
+        <v>5529</v>
+      </c>
+      <c r="B765" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="0" t="s">
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="0" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B767" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="C767" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="D767" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H767" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K767" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L767" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="O767" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T767" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="X767" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="AB767" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="AC767" s="0" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="0" t="s">
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="0" t="s">
+        <v>5557</v>
+      </c>
+      <c r="B769" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="0" t="s">
+        <v>5575</v>
+      </c>
+      <c r="B770" s="0" t="s">
+        <v>5576</v>
+      </c>
+      <c r="C770" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D770" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G770" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H770" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I770" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="J770" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="M770" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="N770" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="O770" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="P770" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q770" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="R770" s="0" t="s">
+        <v>5577</v>
+      </c>
+      <c r="S770" s="0" t="s">
+        <v>5578</v>
+      </c>
+      <c r="T770" s="0" t="s">
+        <v>5579</v>
+      </c>
+      <c r="W770" s="0" t="s">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="0" t="s">
+        <v>5591</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="0" t="s">
+        <v>5592</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="0" t="s">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="0" t="s">
+        <v>5594</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/analyses/unipept/lca/T0_322_digested_PeaksDB_lca-mc.xlsx
+++ b/analyses/unipept/lca/T0_322_digested_PeaksDB_lca-mc.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T0_322_digested_PeaksDB_lca-mc" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="diatom only" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="diatom cytoplasm protein name" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="diatom membrane protein name" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5192" uniqueCount="3588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6580" uniqueCount="3643">
   <si>
     <t xml:space="preserve">peptide</t>
   </si>
@@ -10784,6 +10787,171 @@
   </si>
   <si>
     <t xml:space="preserve">HSQTPGHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database protein ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203139294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203628558 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203289348 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr|B5A4Q2|B5A4Q2_THAWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203244520 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0171384842 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203505436 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0201751422 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203505756 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203628182 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203420370 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203082924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203296644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203298220 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203275302 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203389878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr|A0A089VNZ5|A0A089VNZ5_THAWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0201829098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203287482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0201745788 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0201860448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203603364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203152572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203226722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203172898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0201785164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203265014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr|A0A089VKJ4|A0A089VKJ4_THAWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203508352 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0171421366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203386012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr|F2WW93|F2WW93_THAWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203551214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr|A0A089914|A0A089914_THAWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203255940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203397068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr|A0A089VQA3|A0A089VQA3_THAWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0201742992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr|A0A089VLP5|A0A089VLP5_THAWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203135488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr|A0A089VKD8|A0A089VKD8_THAWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203358160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr|A0A089VKN5|A0A089VKN5_THAWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203399598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203473996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0171446710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0201805882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203608338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr|A0A089VP49|A0A089VP49_THAWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr|A0A089VKJ7|A0A089VKJ7_THAWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203275302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalassiosira_weissflogii_0203417438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr|A0A0898Z4|A0A0898Z4_THAWE</t>
   </si>
 </sst>
 </file>
@@ -10798,6 +10966,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -10857,8 +11026,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10881,11 +11054,11 @@
   </sheetPr>
   <dimension ref="A1:AW774"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.58"/>
@@ -10895,7 +11068,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.05"/>
@@ -10916,25 +11089,25 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="39.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="39.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="140.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="88.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="99.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="99.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="82.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="123.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="123.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="166.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="131.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="123.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="155.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="155.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="137.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="121.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="116.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="121.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="116.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="121.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="53.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="50.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="27.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="16.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28070,4 +28243,4496 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AT62"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM4" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI7" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ7" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG8" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI8" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ8" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN8" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP8" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG9" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH9" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK9" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL9" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI10" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ10" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN10" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO10" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP10" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG11" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH11" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI11" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ11" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM11" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN11" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG12" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH12" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI12" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ12" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK12" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL12" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM12" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO12" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP12" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG13" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH13" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK13" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL13" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM13" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN13" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP13" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="AG14" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="AH14" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="AK14" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL14" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM14" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="AN14" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="AO14" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="AP14" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="AQ14" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="AK15" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="AL15" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="AM15" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="AN15" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG17" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI17" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK17" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="AL17" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM17" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="AN17" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO17" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP17" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG18" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI18" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ18" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN18" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO18" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP18" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="AI19" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="AJ19" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="AM19" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="AN19" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="AO19" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="AP19" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="AQ19" s="0" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG20" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI20" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ20" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK20" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL20" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM20" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN20" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO20" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP20" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE21" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF21" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG21" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="AH21" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="AI21" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="AJ21" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="AM21" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="AN21" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="AO21" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="AP21" s="0" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG22" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH22" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM22" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="AN22" s="0" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG23" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="AH23" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="AI23" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="AJ23" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="AK23" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="AL23" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="AM23" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="AN23" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO23" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="AP23" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="AQ23" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="AR23" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="AS23" s="0" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="AI24" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="AJ24" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="AK24" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN24" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="AO24" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="AP24" s="0" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG25" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="AH25" s="0" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG26" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH26" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE27" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="AI27" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="AJ27" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="AK27" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="AL27" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="AM27" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="AN27" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="AO27" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AP27" s="0" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA28" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE28" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AF28" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AG28" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="AH28" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="AI28" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AJ28" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AK28" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AL28" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AM28" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AN28" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AO28" s="0" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE29" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AF29" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AI29" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AJ29" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AK29" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AL29" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AM29" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AN29" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AO29" s="0" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA30" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG30" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AH30" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AI30" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AJ30" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AK30" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="AL30" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="AM30" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AN30" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AO30" s="0" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG31" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AH31" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AI31" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AJ31" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AK31" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AL31" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AM31" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AN31" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AO31" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AP31" s="0" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AA32" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AE32" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF32" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG32" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH32" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI32" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ32" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK32" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN32" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO32" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="AP32" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG33" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AH33" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AI33" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AJ33" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AK33" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="AL33" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="AM33" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AN33" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AO33" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AP33" s="0" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W34" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W35" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AA36" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AG36" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AH36" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AI36" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AJ36" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AM36" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN36" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="AO36" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP36" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ36" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR36" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE37" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF37" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG37" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH37" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI37" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ37" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK37" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM37" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN37" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="AO37" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI38" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK38" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL38" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM38" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN38" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO38" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP38" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG39" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AH39" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AI39" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AJ39" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AK39" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AL39" s="0" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AM39" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AN39" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AO39" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AP39" s="0" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AQ39" s="0" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA40" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="AG40" s="0" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AH40" s="0" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AI40" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AJ40" s="0" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AK40" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL40" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM40" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AN40" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="AA41" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="AG41" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH41" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI41" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ41" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK41" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL41" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM41" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W42" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA42" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI42" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AJ42" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AK42" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AL42" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AM42" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AN42" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AO42" s="0" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG43" s="0" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AH43" s="0" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AI43" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="AJ43" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="AK43" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="AL43" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="AM43" s="0" t="s">
+        <v>1609</v>
+      </c>
+      <c r="AN43" s="0" t="s">
+        <v>1610</v>
+      </c>
+      <c r="AO43" s="0" t="s">
+        <v>1611</v>
+      </c>
+      <c r="AP43" s="0" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG44" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="AH44" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="AM44" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="AN44" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="AO44" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="AP44" s="0" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG45" s="0" t="s">
+        <v>1762</v>
+      </c>
+      <c r="AH45" s="0" t="s">
+        <v>1763</v>
+      </c>
+      <c r="AI45" s="0" t="s">
+        <v>1764</v>
+      </c>
+      <c r="AJ45" s="0" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AK45" s="0" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AL45" s="0" t="s">
+        <v>1767</v>
+      </c>
+      <c r="AM45" s="0" t="s">
+        <v>1768</v>
+      </c>
+      <c r="AN45" s="0" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AO45" s="0" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AP45" s="0" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG46" s="0" t="s">
+        <v>1950</v>
+      </c>
+      <c r="AH46" s="0" t="s">
+        <v>1951</v>
+      </c>
+      <c r="AI46" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AJ46" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AK46" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="AL46" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="AM46" s="0" t="s">
+        <v>1952</v>
+      </c>
+      <c r="AN46" s="0" t="s">
+        <v>1953</v>
+      </c>
+      <c r="AO46" s="0" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG47" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="AH47" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="AI47" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="AJ47" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="AK47" s="0" t="s">
+        <v>1973</v>
+      </c>
+      <c r="AL47" s="0" t="s">
+        <v>1974</v>
+      </c>
+      <c r="AM47" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="AN47" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="AO47" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="AP47" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="AQ47" s="0" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W48" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG48" s="0" t="s">
+        <v>1976</v>
+      </c>
+      <c r="AH48" s="0" t="s">
+        <v>1977</v>
+      </c>
+      <c r="AK48" s="0" t="s">
+        <v>1978</v>
+      </c>
+      <c r="AL48" s="0" t="s">
+        <v>1979</v>
+      </c>
+      <c r="AM48" s="0" t="s">
+        <v>1980</v>
+      </c>
+      <c r="AN48" s="0" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="W49" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="AA49" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="AG49" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH49" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI49" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ49" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK49" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL49" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM49" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN49" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO49" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP49" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI50" s="0" t="s">
+        <v>2174</v>
+      </c>
+      <c r="AJ50" s="0" t="s">
+        <v>2175</v>
+      </c>
+      <c r="AK50" s="0" t="s">
+        <v>2176</v>
+      </c>
+      <c r="AL50" s="0" t="s">
+        <v>2177</v>
+      </c>
+      <c r="AM50" s="0" t="s">
+        <v>2178</v>
+      </c>
+      <c r="AN50" s="0" t="s">
+        <v>2179</v>
+      </c>
+      <c r="AO50" s="0" t="s">
+        <v>2180</v>
+      </c>
+      <c r="AP50" s="0" t="s">
+        <v>2181</v>
+      </c>
+      <c r="AQ50" s="0" t="s">
+        <v>2182</v>
+      </c>
+      <c r="AR50" s="0" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W51" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE51" s="0" t="s">
+        <v>2446</v>
+      </c>
+      <c r="AF51" s="0" t="s">
+        <v>2447</v>
+      </c>
+      <c r="AG51" s="0" t="s">
+        <v>2448</v>
+      </c>
+      <c r="AH51" s="0" t="s">
+        <v>2449</v>
+      </c>
+      <c r="AI51" s="0" t="s">
+        <v>2450</v>
+      </c>
+      <c r="AJ51" s="0" t="s">
+        <v>2451</v>
+      </c>
+      <c r="AK51" s="0" t="s">
+        <v>2452</v>
+      </c>
+      <c r="AN51" s="0" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AO51" s="0" t="s">
+        <v>2454</v>
+      </c>
+      <c r="AP51" s="0" t="s">
+        <v>2455</v>
+      </c>
+      <c r="AQ51" s="0" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG52" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH52" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI52" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ52" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK52" s="0" t="s">
+        <v>2495</v>
+      </c>
+      <c r="AL52" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM52" s="0" t="s">
+        <v>2496</v>
+      </c>
+      <c r="AN52" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO52" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP52" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="W53" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="AA53" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="AG53" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH53" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI53" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ53" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK53" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL53" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM53" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN53" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO53" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP53" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W54" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG55" s="0" t="s">
+        <v>3002</v>
+      </c>
+      <c r="AH55" s="0" t="s">
+        <v>3003</v>
+      </c>
+      <c r="AI55" s="0" t="s">
+        <v>3004</v>
+      </c>
+      <c r="AJ55" s="0" t="s">
+        <v>3005</v>
+      </c>
+      <c r="AK55" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="AL55" s="0" t="s">
+        <v>3006</v>
+      </c>
+      <c r="AM55" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="AN55" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO55" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="AP55" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AQ55" s="0" t="s">
+        <v>3008</v>
+      </c>
+      <c r="AR55" s="0" t="s">
+        <v>3009</v>
+      </c>
+      <c r="AS55" s="0" t="s">
+        <v>3010</v>
+      </c>
+      <c r="AT55" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W56" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG56" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="AH56" s="0" t="s">
+        <v>3118</v>
+      </c>
+      <c r="AI56" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="AJ56" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="AK56" s="0" t="s">
+        <v>3119</v>
+      </c>
+      <c r="AL56" s="0" t="s">
+        <v>3120</v>
+      </c>
+      <c r="AM56" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AN56" s="0" t="s">
+        <v>3121</v>
+      </c>
+      <c r="AO56" s="0" t="s">
+        <v>1952</v>
+      </c>
+      <c r="AP56" s="0" t="s">
+        <v>1953</v>
+      </c>
+      <c r="AQ56" s="0" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG57" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH57" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK57" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL57" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG58" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH58" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI58" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ58" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK58" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL58" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM58" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN58" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO58" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP58" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>3382</v>
+      </c>
+      <c r="W59" s="0" t="s">
+        <v>3383</v>
+      </c>
+      <c r="AA59" s="0" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AG59" s="0" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AH59" s="0" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AI59" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AJ59" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AK59" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="AL59" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="AM59" s="0" t="s">
+        <v>3386</v>
+      </c>
+      <c r="AN59" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AO59" s="0" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W60" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA60" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG60" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH60" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI60" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ60" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK60" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL60" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM60" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE61" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="AF61" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="AG61" s="0" t="s">
+        <v>3523</v>
+      </c>
+      <c r="AH61" s="0" t="s">
+        <v>3524</v>
+      </c>
+      <c r="AI61" s="0" t="s">
+        <v>3525</v>
+      </c>
+      <c r="AJ61" s="0" t="s">
+        <v>3526</v>
+      </c>
+      <c r="AK61" s="0" t="s">
+        <v>3527</v>
+      </c>
+      <c r="AL61" s="0" t="s">
+        <v>3528</v>
+      </c>
+      <c r="AM61" s="0" t="s">
+        <v>3529</v>
+      </c>
+      <c r="AN61" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="AO61" s="0" t="s">
+        <v>3530</v>
+      </c>
+      <c r="AP61" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S62" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W62" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA62" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="AG62" s="0" t="s">
+        <v>3556</v>
+      </c>
+      <c r="AH62" s="0" t="s">
+        <v>3557</v>
+      </c>
+      <c r="AI62" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AJ62" s="0" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AK62" s="0" t="s">
+        <v>3558</v>
+      </c>
+      <c r="AL62" s="0" t="s">
+        <v>3559</v>
+      </c>
+      <c r="AM62" s="0" t="s">
+        <v>3560</v>
+      </c>
+      <c r="AN62" s="0" t="s">
+        <v>3561</v>
+      </c>
+      <c r="AO62" s="0" t="s">
+        <v>3562</v>
+      </c>
+      <c r="AP62" s="0" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="40.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="70.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="46.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="33.8"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3588</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>3590</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>3591</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>3592</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>3594</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>3595</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>3596</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>3595</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>3599</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>3600</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>1609</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>3602</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>3118</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>3119</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>3120</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>3121</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>1952</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>1953</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>3385</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>3386</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>3604</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>3524</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>3525</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>3526</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>3527</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>3528</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>3529</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>3530</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3605</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>3607</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>3608</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>3609</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>3610</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>3611</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>3613</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>3616</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>3613</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>3617</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>3618</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>3619</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>3621</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>3622</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>3624</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>3625</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>3611</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>3627</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>3629</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>3630</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>3631</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>3632</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>3633</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>3634</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>3635</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>3636</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>3638</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>3009</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>3010</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>3639</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>3631</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>3640</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>3641</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>